--- a/docs/Extension-CareConnect-RelatedClinicalContent-1.xlsx
+++ b/docs/Extension-CareConnect-RelatedClinicalContent-1.xlsx
@@ -222,7 +222,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-RelatedClinicalContent-1</t>
+    <t>https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-RelatedClinicalContent-1</t>
   </si>
   <si>
     <t>N/A</t>
